--- a/room_prices.xlsx
+++ b/room_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B4A64F-B7B4-494D-B3AF-8CF0A5FE694E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD74DCD-F7AF-4877-A38B-1B718983BAF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32805" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weekdays" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -471,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -568,7 +570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4AEFE-20AB-4ED3-B871-432932CF023E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -652,13 +656,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -690,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>15</v>
